--- a/Notes-Skwer.xlsx
+++ b/Notes-Skwer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marya\Desktop\meann88\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marya\Desktop\Projects\meann88\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26D365E3-16D8-4691-9CA7-CC246344C3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17685C1-467D-4301-9FD5-D5329473F3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34725" yWindow="900" windowWidth="21600" windowHeight="11295" xr2:uid="{B044175F-70FE-459B-B247-025CAAA249D4}"/>
+    <workbookView xWindow="31290" yWindow="2655" windowWidth="21600" windowHeight="11295" xr2:uid="{B044175F-70FE-459B-B247-025CAAA249D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="91">
   <si>
     <t>CODE CHECKING</t>
   </si>
@@ -223,13 +223,100 @@
   </si>
   <si>
     <t>Stripe</t>
+  </si>
+  <si>
+    <t>1k5uWQr;-y74YG</t>
+  </si>
+  <si>
+    <t>kicklaced</t>
+  </si>
+  <si>
+    <t>https://kicklaced.com/cpanel</t>
+  </si>
+  <si>
+    <t>Namehero</t>
+  </si>
+  <si>
+    <t>Ticket Created #DR002022110488</t>
+  </si>
+  <si>
+    <t>.yu3(S%QhI-3</t>
+  </si>
+  <si>
+    <t>J%n-tU!,ye!J</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>skwerzon_admin</t>
+  </si>
+  <si>
+    <t>dbname: skwerzon_skwerapp</t>
+  </si>
+  <si>
+    <t>https://www.namehero.com/login</t>
+  </si>
+  <si>
+    <t>emailjs account</t>
+  </si>
+  <si>
+    <t>service_a12jlsr</t>
+  </si>
+  <si>
+    <t>mary_sendGrid_Skwer88</t>
+  </si>
+  <si>
+    <t>SendGrid</t>
+  </si>
+  <si>
+    <t>https://app.sendgrid.com/login?redirect_to=%2F</t>
+  </si>
+  <si>
+    <t>maryann@skwerzone.com</t>
+  </si>
+  <si>
+    <t>Email skwerzone</t>
+  </si>
+  <si>
+    <t>Namehero / skwergroup</t>
+  </si>
+  <si>
+    <t>mejri.adam@gmail.com</t>
+  </si>
+  <si>
+    <t>fFX=d!p!H0~K</t>
+  </si>
+  <si>
+    <t>T(frZlmv3UFZ</t>
+  </si>
+  <si>
+    <t>FiLQsa[P8u)8</t>
+  </si>
+  <si>
+    <t>sales@skwergroup.com</t>
+  </si>
+  <si>
+    <t>no-reply@skwergroup.com</t>
+  </si>
+  <si>
+    <t>annie_deep_23</t>
+  </si>
+  <si>
+    <t>annie_2389</t>
+  </si>
+  <si>
+    <t>Proton VPN</t>
+  </si>
+  <si>
+    <t>mary@skwergroup.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +351,24 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF500050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -302,7 +407,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -314,6 +419,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -629,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9398A7B4-3DD9-40F2-A3A7-2C98246F90DF}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,9 +751,10 @@
     <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -663,7 +774,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>58</v>
       </c>
@@ -678,8 +789,11 @@
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>39</v>
       </c>
@@ -695,7 +809,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>42</v>
       </c>
@@ -709,7 +823,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -717,7 +831,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>43</v>
       </c>
@@ -731,7 +845,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>47</v>
       </c>
@@ -745,7 +859,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>48</v>
@@ -759,7 +873,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>55</v>
@@ -773,7 +887,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>57</v>
       </c>
@@ -785,7 +899,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>61</v>
       </c>
@@ -801,51 +915,93 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="C15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="C16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
@@ -858,10 +1014,16 @@
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="A19" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="C19" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
@@ -873,43 +1035,67 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
+    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="C21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="C22" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>83</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="C23" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
+      <c r="A24" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="C25" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
@@ -926,9 +1112,19 @@
     <hyperlink ref="B10" r:id="rId1" tooltip="https://w0g.645.myftpupload.com/" xr:uid="{334AD8C3-7335-4032-8435-D14E70D1AED3}"/>
     <hyperlink ref="B2" r:id="rId2" tooltip="https://clients.domainracer.com/clientarea.php" xr:uid="{A4040390-2FE7-44EB-B238-52E82459BF72}"/>
     <hyperlink ref="C11" r:id="rId3" xr:uid="{AB1FB61F-BCBE-416F-93EB-044E8E8C95CF}"/>
+    <hyperlink ref="B12" r:id="rId4" xr:uid="{7C94EDD3-E5A4-45C6-8161-668F70478D99}"/>
+    <hyperlink ref="G2" r:id="rId5" display="https://clients.domainracer.com/viewticket.php?tid=DR002022110488&amp;c=YFu8uLYy" xr:uid="{AB45508F-E7FF-4F9D-B51E-0FF8B7563F56}"/>
+    <hyperlink ref="C13" r:id="rId6" xr:uid="{3F7FD1EE-2C96-4B3C-968F-64624E2F13A9}"/>
+    <hyperlink ref="C15" r:id="rId7" xr:uid="{3063F4E0-1711-4D9B-8C80-53BF4D8CD0F7}"/>
+    <hyperlink ref="C16" r:id="rId8" xr:uid="{4E8A6589-F88C-455C-8D0C-8263327594E4}"/>
+    <hyperlink ref="C19" r:id="rId9" xr:uid="{D97B6C69-FEA1-433D-990A-DDCBF57C1832}"/>
+    <hyperlink ref="C21" r:id="rId10" xr:uid="{F8EE5B80-A554-4BC9-A46C-B46F7B4F1BC0}"/>
+    <hyperlink ref="C23" r:id="rId11" xr:uid="{4800EF46-EE6F-4DB8-A627-FD28908C2350}"/>
+    <hyperlink ref="C22" r:id="rId12" xr:uid="{676E4B87-BC15-492E-9D11-C0CBD1DEDF00}"/>
+    <hyperlink ref="C25" r:id="rId13" xr:uid="{C05A0571-5849-49F0-9C43-B4490A85B006}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 

--- a/Notes-Skwer.xlsx
+++ b/Notes-Skwer.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marya\Desktop\Projects\meann88\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17685C1-467D-4301-9FD5-D5329473F3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F8D0E7-E4A3-4562-AF9B-FD65656C6F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31290" yWindow="2655" windowWidth="21600" windowHeight="11295" xr2:uid="{B044175F-70FE-459B-B247-025CAAA249D4}"/>
+    <workbookView xWindow="11025" yWindow="1245" windowWidth="13890" windowHeight="11295" xr2:uid="{B044175F-70FE-459B-B247-025CAAA249D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="127">
   <si>
     <t>CODE CHECKING</t>
   </si>
@@ -310,13 +311,121 @@
   </si>
   <si>
     <t>mary@skwergroup.com</t>
+  </si>
+  <si>
+    <t>I;o}r)~8gPD[</t>
+  </si>
+  <si>
+    <t>skwergro_admin</t>
+  </si>
+  <si>
+    <t>0-;umLl#EZ]J</t>
+  </si>
+  <si>
+    <t>maryann@kicklaced.com</t>
+  </si>
+  <si>
+    <t>h*C#xuV*}~[W</t>
+  </si>
+  <si>
+    <t>skwergro_staging</t>
+  </si>
+  <si>
+    <t>Staging database</t>
+  </si>
+  <si>
+    <t>Wordpress/NameHero</t>
+  </si>
+  <si>
+    <t>adminskwergroup</t>
+  </si>
+  <si>
+    <t>Pass@Skwer2022</t>
+  </si>
+  <si>
+    <t>https://skwergroup.com/wp-admin</t>
+  </si>
+  <si>
+    <t>.%}qPS(NY[Q_</t>
+  </si>
+  <si>
+    <t>no-reply@skwerzone.com</t>
+  </si>
+  <si>
+    <t>Database Skwergroup</t>
+  </si>
+  <si>
+    <t>skwergro_skwerapp</t>
+  </si>
+  <si>
+    <t>7114EF</t>
+  </si>
+  <si>
+    <t>006cff</t>
+  </si>
+  <si>
+    <t>https://staging.skwergroup.com/service/security-compliance/</t>
+  </si>
+  <si>
+    <t>https://staging.skwergroup.com/service/company-formation-in-uae/</t>
+  </si>
+  <si>
+    <t>https://staging.skwergroup.com/service/offshore-company-formation/</t>
+  </si>
+  <si>
+    <t>https://staging.skwergroup.com/service/banking-support/</t>
+  </si>
+  <si>
+    <t>https://staging.skwergroup.com/service/accounting-auditing/</t>
+  </si>
+  <si>
+    <t>https://staging.skwergroup.com/service/investment-consultancy/</t>
+  </si>
+  <si>
+    <t>https://staging.skwergroup.com/service/real-estate/</t>
+  </si>
+  <si>
+    <t>https://staging.skwergroup.com/service/marketing-services/</t>
+  </si>
+  <si>
+    <t>Company Formation In UAE</t>
+  </si>
+  <si>
+    <t>Blog Grid 2 Columns : Right Sidebar</t>
+  </si>
+  <si>
+    <t>#414244</t>
+  </si>
+  <si>
+    <t>#2E4A8E</t>
+  </si>
+  <si>
+    <t>#2BABE2</t>
+  </si>
+  <si>
+    <t>#1475F7</t>
+  </si>
+  <si>
+    <t>#1227B8</t>
+  </si>
+  <si>
+    <t>Royal Blue</t>
+  </si>
+  <si>
+    <t>Lighter Blue</t>
+  </si>
+  <si>
+    <t>#203569</t>
+  </si>
+  <si>
+    <t>Dark Blue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,16 +479,34 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFE8EAED"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -402,12 +529,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD1D1D1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD1D1D1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD1D1D1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD1D1D1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -423,6 +565,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -739,13 +889,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9398A7B4-3DD9-40F2-A3A7-2C98246F90DF}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
@@ -754,7 +904,7 @@
     <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -774,7 +924,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>58</v>
       </c>
@@ -793,7 +943,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
         <v>39</v>
       </c>
@@ -809,12 +959,12 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -823,7 +973,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -831,7 +981,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
         <v>43</v>
       </c>
@@ -845,7 +995,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
         <v>47</v>
       </c>
@@ -859,7 +1009,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>48</v>
@@ -873,7 +1023,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>55</v>
@@ -887,7 +1037,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
         <v>57</v>
       </c>
@@ -899,7 +1049,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
         <v>61</v>
       </c>
@@ -915,7 +1065,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75">
       <c r="A12" s="4" t="s">
         <v>65</v>
       </c>
@@ -931,7 +1081,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
         <v>65</v>
       </c>
@@ -947,7 +1097,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="4" t="s">
         <v>69</v>
       </c>
@@ -963,7 +1113,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="4" t="s">
         <v>73</v>
       </c>
@@ -977,7 +1127,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="6" t="s">
@@ -991,7 +1141,7 @@
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
         <v>76</v>
       </c>
@@ -1005,7 +1155,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1013,7 +1163,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
         <v>79</v>
       </c>
@@ -1027,15 +1177,19 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="C20" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" t="s">
+        <v>102</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="16.5">
       <c r="A21" s="4" t="s">
         <v>80</v>
       </c>
@@ -1049,7 +1203,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="6" t="s">
@@ -1061,7 +1215,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="6" t="s">
@@ -1073,7 +1227,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="4" t="s">
         <v>89</v>
       </c>
@@ -1087,7 +1241,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="6" t="s">
@@ -1099,13 +1253,126 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A30" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="D34" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="C41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="C42" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4">
+      <c r="C43" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" t="s">
+        <v>124</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1122,9 +1389,13 @@
     <hyperlink ref="C23" r:id="rId11" xr:uid="{4800EF46-EE6F-4DB8-A627-FD28908C2350}"/>
     <hyperlink ref="C22" r:id="rId12" xr:uid="{676E4B87-BC15-492E-9D11-C0CBD1DEDF00}"/>
     <hyperlink ref="C25" r:id="rId13" xr:uid="{C05A0571-5849-49F0-9C43-B4490A85B006}"/>
+    <hyperlink ref="C4" r:id="rId14" xr:uid="{DCC7D8C5-A9B9-47EE-B44A-58953D7985B6}"/>
+    <hyperlink ref="B30" r:id="rId15" xr:uid="{5FC6C367-FD89-4BAF-B936-E611C8059839}"/>
+    <hyperlink ref="C20" r:id="rId16" xr:uid="{56F560BC-E977-4A9C-8B96-1A716EB1CE8C}"/>
+    <hyperlink ref="D30" r:id="rId17" xr:uid="{081D00A1-7D42-4537-B0C7-E4A6D80FA8E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -1136,7 +1407,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
@@ -1145,7 +1416,7 @@
     <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="D3" t="s">
         <v>6</v>
       </c>
@@ -1153,7 +1424,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1170,7 +1441,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1190,7 +1461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1216,7 +1487,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1230,7 +1501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1244,7 +1515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1252,7 +1523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1260,7 +1531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1271,7 +1542,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1279,7 +1550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1287,7 +1558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1301,13 +1572,80 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88234B18-C26D-425F-A8C1-45F5A0CA15F9}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="64.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{60BDCCA5-8DB7-4690-9BA5-05242B579430}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1494,15 +1832,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8CAF1B1-CE88-47FE-A4C1-0E00A6B15A99}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1823B177-21CB-4019-91EE-B1B2D677BD02}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="9d6112ac-3772-4ba7-bafc-17a5e8cbc75b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e85226fe-dfe0-4954-8c60-0ae9fda03773"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1527,18 +1877,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1823B177-21CB-4019-91EE-B1B2D677BD02}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8CAF1B1-CE88-47FE-A4C1-0E00A6B15A99}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="9d6112ac-3772-4ba7-bafc-17a5e8cbc75b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e85226fe-dfe0-4954-8c60-0ae9fda03773"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>